--- a/Crawling/music/crawled_data/mod_soribada/live_soribada_20220404_20220425_111010.xlsx
+++ b/Crawling/music/crawled_data/mod_soribada/live_soribada_20220404_20220425_111010.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>soribada</t>
+    <t>Soribada</t>
   </si>
   <si>
     <t>2022-04-04_07:10</t>

--- a/Crawling/music/crawled_data/mod_soribada/live_soribada_20220404_20220425_111010.xlsx
+++ b/Crawling/music/crawled_data/mod_soribada/live_soribada_20220404_20220425_111010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="210">
   <si>
     <t>사이트</t>
   </si>
@@ -626,12 +626,6 @@
   </si>
   <si>
     <t>Muto Musiq</t>
-  </si>
-  <si>
-    <t>개인</t>
-  </si>
-  <si>
-    <t>기개인</t>
   </si>
   <si>
     <t>인투이엔티</t>
@@ -3009,7 +3003,7 @@
         <v>84</v>
       </c>
       <c r="G77" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H77" t="s">
         <v>198</v>
@@ -3035,7 +3029,7 @@
         <v>177</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H78" t="s">
         <v>198</v>
@@ -3061,7 +3055,7 @@
         <v>178</v>
       </c>
       <c r="G79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H79" t="s">
         <v>198</v>
@@ -3087,7 +3081,7 @@
         <v>179</v>
       </c>
       <c r="G80" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H80" t="s">
         <v>198</v>
@@ -3113,7 +3107,7 @@
         <v>180</v>
       </c>
       <c r="G81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H81" t="s">
         <v>198</v>
@@ -3165,7 +3159,7 @@
         <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H83" t="s">
         <v>198</v>
@@ -3341,7 +3335,7 @@
         <v>188</v>
       </c>
       <c r="G90" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H90" t="s">
         <v>198</v>
@@ -3393,7 +3387,7 @@
         <v>189</v>
       </c>
       <c r="G92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H92" t="s">
         <v>198</v>
@@ -3419,7 +3413,7 @@
         <v>190</v>
       </c>
       <c r="G93" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H93" t="s">
         <v>198</v>
@@ -3445,7 +3439,7 @@
         <v>191</v>
       </c>
       <c r="G94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H94" t="s">
         <v>198</v>
@@ -3471,7 +3465,7 @@
         <v>192</v>
       </c>
       <c r="G95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H95" t="s">
         <v>198</v>
@@ -3569,7 +3563,7 @@
         <v>59</v>
       </c>
       <c r="G99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H99" t="s">
         <v>198</v>
@@ -3621,7 +3615,7 @@
         <v>84</v>
       </c>
       <c r="G101" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H101" t="s">
         <v>198</v>
